--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E95CE-1F80-479A-A476-72F60C542CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C65D8D-386C-47ED-A1FA-62EB3A5A12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>2050</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ref="C42:C51" si="3">C41</f>
+        <f t="shared" ref="C42:C61" si="3">C41</f>
         <v>76</v>
       </c>
       <c r="D42" s="1">
@@ -1261,6 +1261,166 @@
       <c r="D51" s="1">
         <f t="shared" si="0"/>
         <v>37.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2550</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" ref="D52:D61" si="4">B52*0.015</f>
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2650</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="4"/>
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="4"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2750</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="4"/>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2850</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="4"/>
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2900</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2950</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="4"/>
+        <v>44.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C65D8D-386C-47ED-A1FA-62EB3A5A12E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2009-D0C4-43FB-8B09-129909FF9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>2050</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ref="C42:C61" si="3">C41</f>
+        <f t="shared" ref="C42:C101" si="3">C41</f>
         <v>76</v>
       </c>
       <c r="D42" s="1">
@@ -1421,6 +1421,646 @@
       <c r="D61" s="1">
         <f t="shared" si="4"/>
         <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3050</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" ref="D62:D97" si="5">B62*0.015</f>
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3100</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="5"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3150</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="5"/>
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3250</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="5"/>
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3300</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="5"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3350</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="5"/>
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3400</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3450</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="5"/>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3550</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="5"/>
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3650</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="5"/>
+        <v>54.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3700</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="5"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3750</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="5"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3800</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3850</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="5"/>
+        <v>57.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3900</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="5"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3950</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="5"/>
+        <v>59.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4050</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="5"/>
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4100</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="5"/>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4150</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="5"/>
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4200</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4250</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="5"/>
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4300</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="5"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4350</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="5"/>
+        <v>65.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4450</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4500</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4550</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4600</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4650</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4700</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4750</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4850</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" ref="D98:D101" si="6">B98*0.015</f>
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4900</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="6"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4950</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="6"/>
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A2009-D0C4-43FB-8B09-129909FF9349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5429A73-FCAA-4C19-ADAA-F090BA06EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>2050</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" ref="C42:C101" si="3">C41</f>
+        <f t="shared" ref="C42:C105" si="3">C41</f>
         <v>76</v>
       </c>
       <c r="D42" s="1">
@@ -2011,7 +2011,7 @@
         <v>76</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" ref="D98:D101" si="6">B98*0.015</f>
+        <f t="shared" ref="D98:D104" si="6">B98*0.015</f>
         <v>72.75</v>
       </c>
     </row>
@@ -2061,6 +2061,646 @@
       <c r="D101" s="1">
         <f t="shared" si="6"/>
         <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5050</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="6"/>
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="6"/>
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5150</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="6"/>
+        <v>77.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" ref="D105:D141" si="7">B105*0.015</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5250</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" ref="C106:C141" si="8">C105</f>
+        <v>76</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="7"/>
+        <v>78.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5300</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="7"/>
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>5350</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="7"/>
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5400</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5450</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="7"/>
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="7"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5550</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="7"/>
+        <v>83.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5650</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="7"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="7"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5750</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="7"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5850</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="7"/>
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="7"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5950</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="7"/>
+        <v>89.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6050</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="7"/>
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>6100</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="7"/>
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>6150</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="7"/>
+        <v>92.25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>6250</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="7"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>6300</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="7"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>6350</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="7"/>
+        <v>95.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>6450</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="7"/>
+        <v>96.75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>6550</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="7"/>
+        <v>98.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6600</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>6650</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="7"/>
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>6700</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="7"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>6750</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="7"/>
+        <v>101.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>6850</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="7"/>
+        <v>102.75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>6900</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="7"/>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>6950</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="7"/>
+        <v>104.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="7"/>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5429A73-FCAA-4C19-ADAA-F090BA06EECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6844C7A-EF4E-4F9E-8D40-0F62AC2D9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2135,7 +2135,7 @@
         <v>5250</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106:C141" si="8">C105</f>
+        <f t="shared" ref="C106:C169" si="8">C105</f>
         <v>76</v>
       </c>
       <c r="D106" s="1">
@@ -2701,6 +2701,966 @@
       <c r="D141" s="1">
         <f t="shared" si="7"/>
         <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7050</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" ref="D142:D201" si="9">B142*0.015</f>
+        <v>105.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="9"/>
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7150</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="9"/>
+        <v>107.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7250</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="9"/>
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7300</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="9"/>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>7350</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="9"/>
+        <v>110.25</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7450</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="9"/>
+        <v>111.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7500</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="9"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7550</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="9"/>
+        <v>113.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>7650</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="9"/>
+        <v>114.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>7700</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="9"/>
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>7750</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="9"/>
+        <v>116.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7850</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="9"/>
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="9"/>
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>7950</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="9"/>
+        <v>119.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>8050</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="9"/>
+        <v>120.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>8100</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="9"/>
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>8150</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="9"/>
+        <v>122.25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8250</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="9"/>
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="9"/>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8350</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="9"/>
+        <v>125.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>8400</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8450</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" ref="C170:C201" si="10">C169</f>
+        <v>76</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="9"/>
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>8500</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="9"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>8550</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="9"/>
+        <v>128.25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>8650</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="9"/>
+        <v>129.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="9"/>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>8750</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="9"/>
+        <v>131.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="9"/>
+        <v>132.75</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="9"/>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>8950</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="9"/>
+        <v>134.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="9"/>
+        <v>135.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>9100</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="9"/>
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>9150</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="9"/>
+        <v>137.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9250</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="9"/>
+        <v>138.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9300</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="9"/>
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9350</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="9"/>
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9400</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>9450</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="9"/>
+        <v>141.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>9500</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D191" s="1">
+        <f t="shared" si="9"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9550</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="9"/>
+        <v>143.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D193" s="1">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9650</v>
+      </c>
+      <c r="C194" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D194" s="1">
+        <f t="shared" si="9"/>
+        <v>144.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C195" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" si="9"/>
+        <v>145.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9750</v>
+      </c>
+      <c r="C196" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D196" s="1">
+        <f t="shared" si="9"/>
+        <v>146.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C197" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D197" s="1">
+        <f t="shared" si="9"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>9850</v>
+      </c>
+      <c r="C198" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D198" s="1">
+        <f t="shared" si="9"/>
+        <v>147.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>9900</v>
+      </c>
+      <c r="C199" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D199" s="1">
+        <f t="shared" si="9"/>
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>9950</v>
+      </c>
+      <c r="C200" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D200" s="1">
+        <f t="shared" si="9"/>
+        <v>149.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C201" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D201" s="1">
+        <f t="shared" si="9"/>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6844C7A-EF4E-4F9E-8D40-0F62AC2D9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00D900-2009-4AFC-A4C7-9527078CBA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3159,7 +3159,7 @@
         <v>8450</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" ref="C170:C201" si="10">C169</f>
+        <f t="shared" ref="C170:C233" si="10">C169</f>
         <v>76</v>
       </c>
       <c r="D170" s="1">
@@ -3661,6 +3661,1606 @@
       <c r="D201" s="1">
         <f t="shared" si="9"/>
         <v>150</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>10050</v>
+      </c>
+      <c r="C202" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D202" s="1">
+        <f t="shared" ref="D202:D265" si="11">B202*0.015</f>
+        <v>150.75</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>10100</v>
+      </c>
+      <c r="C203" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D203" s="1">
+        <f t="shared" si="11"/>
+        <v>151.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>10150</v>
+      </c>
+      <c r="C204" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D204" s="1">
+        <f t="shared" si="11"/>
+        <v>152.25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C205" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D205" s="1">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>10250</v>
+      </c>
+      <c r="C206" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D206" s="1">
+        <f t="shared" si="11"/>
+        <v>153.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C207" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D207" s="1">
+        <f t="shared" si="11"/>
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>10350</v>
+      </c>
+      <c r="C208" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D208" s="1">
+        <f t="shared" si="11"/>
+        <v>155.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C209" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D209" s="1">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>10450</v>
+      </c>
+      <c r="C210" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D210" s="1">
+        <f t="shared" si="11"/>
+        <v>156.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C211" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D211" s="1">
+        <f t="shared" si="11"/>
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>10550</v>
+      </c>
+      <c r="C212" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D212" s="1">
+        <f t="shared" si="11"/>
+        <v>158.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C213" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D213" s="1">
+        <f t="shared" si="11"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>10650</v>
+      </c>
+      <c r="C214" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D214" s="1">
+        <f t="shared" si="11"/>
+        <v>159.75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>10700</v>
+      </c>
+      <c r="C215" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D215" s="1">
+        <f t="shared" si="11"/>
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10750</v>
+      </c>
+      <c r="C216" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D216" s="1">
+        <f t="shared" si="11"/>
+        <v>161.25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C217" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D217" s="1">
+        <f t="shared" si="11"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>10850</v>
+      </c>
+      <c r="C218" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D218" s="1">
+        <f t="shared" si="11"/>
+        <v>162.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>10900</v>
+      </c>
+      <c r="C219" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D219" s="1">
+        <f t="shared" si="11"/>
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>10950</v>
+      </c>
+      <c r="C220" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D220" s="1">
+        <f t="shared" si="11"/>
+        <v>164.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C221" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D221" s="1">
+        <f t="shared" si="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>11050</v>
+      </c>
+      <c r="C222" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D222" s="1">
+        <f t="shared" si="11"/>
+        <v>165.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>11100</v>
+      </c>
+      <c r="C223" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D223" s="1">
+        <f t="shared" si="11"/>
+        <v>166.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>11150</v>
+      </c>
+      <c r="C224" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D224" s="1">
+        <f t="shared" si="11"/>
+        <v>167.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>11200</v>
+      </c>
+      <c r="C225" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D225" s="1">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>11250</v>
+      </c>
+      <c r="C226" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D226" s="1">
+        <f t="shared" si="11"/>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>11300</v>
+      </c>
+      <c r="C227" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D227" s="1">
+        <f t="shared" si="11"/>
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>11350</v>
+      </c>
+      <c r="C228" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D228" s="1">
+        <f t="shared" si="11"/>
+        <v>170.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>11400</v>
+      </c>
+      <c r="C229" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D229" s="1">
+        <f t="shared" si="11"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>11450</v>
+      </c>
+      <c r="C230" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D230" s="1">
+        <f t="shared" si="11"/>
+        <v>171.75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C231" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D231" s="1">
+        <f t="shared" si="11"/>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>11550</v>
+      </c>
+      <c r="C232" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D232" s="1">
+        <f t="shared" si="11"/>
+        <v>173.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>11600</v>
+      </c>
+      <c r="C233" s="1">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="D233" s="1">
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>11650</v>
+      </c>
+      <c r="C234" s="1">
+        <f t="shared" ref="C234:C297" si="12">C233</f>
+        <v>76</v>
+      </c>
+      <c r="D234" s="1">
+        <f t="shared" si="11"/>
+        <v>174.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>11700</v>
+      </c>
+      <c r="C235" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D235" s="1">
+        <f t="shared" si="11"/>
+        <v>175.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>11750</v>
+      </c>
+      <c r="C236" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D236" s="1">
+        <f t="shared" si="11"/>
+        <v>176.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>11800</v>
+      </c>
+      <c r="C237" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D237" s="1">
+        <f t="shared" si="11"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>11850</v>
+      </c>
+      <c r="C238" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D238" s="1">
+        <f t="shared" si="11"/>
+        <v>177.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>11900</v>
+      </c>
+      <c r="C239" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D239" s="1">
+        <f t="shared" si="11"/>
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>11950</v>
+      </c>
+      <c r="C240" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D240" s="1">
+        <f t="shared" si="11"/>
+        <v>179.25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C241" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D241" s="1">
+        <f t="shared" si="11"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>12050</v>
+      </c>
+      <c r="C242" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D242" s="1">
+        <f t="shared" si="11"/>
+        <v>180.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>12100</v>
+      </c>
+      <c r="C243" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D243" s="1">
+        <f t="shared" si="11"/>
+        <v>181.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>12150</v>
+      </c>
+      <c r="C244" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D244" s="1">
+        <f t="shared" si="11"/>
+        <v>182.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>12200</v>
+      </c>
+      <c r="C245" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D245" s="1">
+        <f t="shared" si="11"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>12250</v>
+      </c>
+      <c r="C246" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D246" s="1">
+        <f t="shared" si="11"/>
+        <v>183.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>12300</v>
+      </c>
+      <c r="C247" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D247" s="1">
+        <f t="shared" si="11"/>
+        <v>184.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>12350</v>
+      </c>
+      <c r="C248" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D248" s="1">
+        <f t="shared" si="11"/>
+        <v>185.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C249" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D249" s="1">
+        <f t="shared" si="11"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>12450</v>
+      </c>
+      <c r="C250" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D250" s="1">
+        <f t="shared" si="11"/>
+        <v>186.75</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C251" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D251" s="1">
+        <f t="shared" si="11"/>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>12550</v>
+      </c>
+      <c r="C252" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D252" s="1">
+        <f t="shared" si="11"/>
+        <v>188.25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>12600</v>
+      </c>
+      <c r="C253" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D253" s="1">
+        <f t="shared" si="11"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>12650</v>
+      </c>
+      <c r="C254" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D254" s="1">
+        <f t="shared" si="11"/>
+        <v>189.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>12700</v>
+      </c>
+      <c r="C255" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D255" s="1">
+        <f t="shared" si="11"/>
+        <v>190.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>12750</v>
+      </c>
+      <c r="C256" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D256" s="1">
+        <f t="shared" si="11"/>
+        <v>191.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C257" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D257" s="1">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>12850</v>
+      </c>
+      <c r="C258" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D258" s="1">
+        <f t="shared" si="11"/>
+        <v>192.75</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>12900</v>
+      </c>
+      <c r="C259" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D259" s="1">
+        <f t="shared" si="11"/>
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>12950</v>
+      </c>
+      <c r="C260" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D260" s="1">
+        <f t="shared" si="11"/>
+        <v>194.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C261" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D261" s="1">
+        <f t="shared" si="11"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>13050</v>
+      </c>
+      <c r="C262" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D262" s="1">
+        <f t="shared" si="11"/>
+        <v>195.75</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>13100</v>
+      </c>
+      <c r="C263" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D263" s="1">
+        <f t="shared" si="11"/>
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>13150</v>
+      </c>
+      <c r="C264" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D264" s="1">
+        <f t="shared" si="11"/>
+        <v>197.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>13200</v>
+      </c>
+      <c r="C265" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D265" s="1">
+        <f t="shared" si="11"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>13250</v>
+      </c>
+      <c r="C266" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D266" s="1">
+        <f t="shared" ref="D266:D301" si="13">B266*0.015</f>
+        <v>198.75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>13300</v>
+      </c>
+      <c r="C267" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D267" s="1">
+        <f t="shared" si="13"/>
+        <v>199.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>13350</v>
+      </c>
+      <c r="C268" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D268" s="1">
+        <f t="shared" si="13"/>
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>13400</v>
+      </c>
+      <c r="C269" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D269" s="1">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>13450</v>
+      </c>
+      <c r="C270" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D270" s="1">
+        <f t="shared" si="13"/>
+        <v>201.75</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>13500</v>
+      </c>
+      <c r="C271" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D271" s="1">
+        <f t="shared" si="13"/>
+        <v>202.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>13550</v>
+      </c>
+      <c r="C272" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D272" s="1">
+        <f t="shared" si="13"/>
+        <v>203.25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>13600</v>
+      </c>
+      <c r="C273" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D273" s="1">
+        <f t="shared" si="13"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>13650</v>
+      </c>
+      <c r="C274" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D274" s="1">
+        <f t="shared" si="13"/>
+        <v>204.75</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>13700</v>
+      </c>
+      <c r="C275" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D275" s="1">
+        <f t="shared" si="13"/>
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>13750</v>
+      </c>
+      <c r="C276" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D276" s="1">
+        <f t="shared" si="13"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>13800</v>
+      </c>
+      <c r="C277" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D277" s="1">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>13850</v>
+      </c>
+      <c r="C278" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D278" s="1">
+        <f t="shared" si="13"/>
+        <v>207.75</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>13900</v>
+      </c>
+      <c r="C279" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D279" s="1">
+        <f t="shared" si="13"/>
+        <v>208.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>13950</v>
+      </c>
+      <c r="C280" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D280" s="1">
+        <f t="shared" si="13"/>
+        <v>209.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C281" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D281" s="1">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>14050</v>
+      </c>
+      <c r="C282" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D282" s="1">
+        <f t="shared" si="13"/>
+        <v>210.75</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>14100</v>
+      </c>
+      <c r="C283" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D283" s="1">
+        <f t="shared" si="13"/>
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>14150</v>
+      </c>
+      <c r="C284" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D284" s="1">
+        <f t="shared" si="13"/>
+        <v>212.25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14200</v>
+      </c>
+      <c r="C285" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D285" s="1">
+        <f t="shared" si="13"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>14250</v>
+      </c>
+      <c r="C286" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D286" s="1">
+        <f t="shared" si="13"/>
+        <v>213.75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>14300</v>
+      </c>
+      <c r="C287" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D287" s="1">
+        <f t="shared" si="13"/>
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>14350</v>
+      </c>
+      <c r="C288" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D288" s="1">
+        <f t="shared" si="13"/>
+        <v>215.25</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>14400</v>
+      </c>
+      <c r="C289" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D289" s="1">
+        <f t="shared" si="13"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>14450</v>
+      </c>
+      <c r="C290" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D290" s="1">
+        <f t="shared" si="13"/>
+        <v>216.75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>14500</v>
+      </c>
+      <c r="C291" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D291" s="1">
+        <f t="shared" si="13"/>
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>14550</v>
+      </c>
+      <c r="C292" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D292" s="1">
+        <f t="shared" si="13"/>
+        <v>218.25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>14600</v>
+      </c>
+      <c r="C293" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D293" s="1">
+        <f t="shared" si="13"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>14650</v>
+      </c>
+      <c r="C294" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D294" s="1">
+        <f t="shared" si="13"/>
+        <v>219.75</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>14700</v>
+      </c>
+      <c r="C295" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D295" s="1">
+        <f t="shared" si="13"/>
+        <v>220.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>14750</v>
+      </c>
+      <c r="C296" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D296" s="1">
+        <f t="shared" si="13"/>
+        <v>221.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>14800</v>
+      </c>
+      <c r="C297" s="1">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="D297" s="1">
+        <f t="shared" si="13"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>14850</v>
+      </c>
+      <c r="C298" s="1">
+        <f t="shared" ref="C298:C301" si="14">C297</f>
+        <v>76</v>
+      </c>
+      <c r="D298" s="1">
+        <f t="shared" si="13"/>
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>14900</v>
+      </c>
+      <c r="C299" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D299" s="1">
+        <f t="shared" si="13"/>
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>14950</v>
+      </c>
+      <c r="C300" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D300" s="1">
+        <f t="shared" si="13"/>
+        <v>224.25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C301" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D301" s="1">
+        <f t="shared" si="13"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00D900-2009-4AFC-A4C7-9527078CBA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7CA82D-5D58-4BB1-BFDD-738ACF289B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5207,7 +5207,7 @@
         <v>14850</v>
       </c>
       <c r="C298" s="1">
-        <f t="shared" ref="C298:C301" si="14">C297</f>
+        <f t="shared" ref="C298:C361" si="14">C297</f>
         <v>76</v>
       </c>
       <c r="D298" s="1">
@@ -5261,6 +5261,1606 @@
       <c r="D301" s="1">
         <f t="shared" si="13"/>
         <v>225</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>15050</v>
+      </c>
+      <c r="C302" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D302" s="1">
+        <f t="shared" ref="D302:D365" si="15">B302*0.015</f>
+        <v>225.75</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>15100</v>
+      </c>
+      <c r="C303" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D303" s="1">
+        <f t="shared" si="15"/>
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>15150</v>
+      </c>
+      <c r="C304" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D304" s="1">
+        <f t="shared" si="15"/>
+        <v>227.25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>15200</v>
+      </c>
+      <c r="C305" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D305" s="1">
+        <f t="shared" si="15"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>15250</v>
+      </c>
+      <c r="C306" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D306" s="1">
+        <f t="shared" si="15"/>
+        <v>228.75</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>15300</v>
+      </c>
+      <c r="C307" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D307" s="1">
+        <f t="shared" si="15"/>
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>15350</v>
+      </c>
+      <c r="C308" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D308" s="1">
+        <f t="shared" si="15"/>
+        <v>230.25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>15400</v>
+      </c>
+      <c r="C309" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D309" s="1">
+        <f t="shared" si="15"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>15450</v>
+      </c>
+      <c r="C310" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D310" s="1">
+        <f t="shared" si="15"/>
+        <v>231.75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>15500</v>
+      </c>
+      <c r="C311" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D311" s="1">
+        <f t="shared" si="15"/>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>15550</v>
+      </c>
+      <c r="C312" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D312" s="1">
+        <f t="shared" si="15"/>
+        <v>233.25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>15600</v>
+      </c>
+      <c r="C313" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D313" s="1">
+        <f t="shared" si="15"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>15650</v>
+      </c>
+      <c r="C314" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D314" s="1">
+        <f t="shared" si="15"/>
+        <v>234.75</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>15700</v>
+      </c>
+      <c r="C315" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D315" s="1">
+        <f t="shared" si="15"/>
+        <v>235.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>15750</v>
+      </c>
+      <c r="C316" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D316" s="1">
+        <f t="shared" si="15"/>
+        <v>236.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>15800</v>
+      </c>
+      <c r="C317" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D317" s="1">
+        <f t="shared" si="15"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>15850</v>
+      </c>
+      <c r="C318" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D318" s="1">
+        <f t="shared" si="15"/>
+        <v>237.75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>15900</v>
+      </c>
+      <c r="C319" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D319" s="1">
+        <f t="shared" si="15"/>
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>15950</v>
+      </c>
+      <c r="C320" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D320" s="1">
+        <f t="shared" si="15"/>
+        <v>239.25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C321" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D321" s="1">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>16050</v>
+      </c>
+      <c r="C322" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D322" s="1">
+        <f t="shared" si="15"/>
+        <v>240.75</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>16100</v>
+      </c>
+      <c r="C323" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D323" s="1">
+        <f t="shared" si="15"/>
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>16150</v>
+      </c>
+      <c r="C324" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D324" s="1">
+        <f t="shared" si="15"/>
+        <v>242.25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>16200</v>
+      </c>
+      <c r="C325" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D325" s="1">
+        <f t="shared" si="15"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>16250</v>
+      </c>
+      <c r="C326" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D326" s="1">
+        <f t="shared" si="15"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>16300</v>
+      </c>
+      <c r="C327" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D327" s="1">
+        <f t="shared" si="15"/>
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>16350</v>
+      </c>
+      <c r="C328" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D328" s="1">
+        <f t="shared" si="15"/>
+        <v>245.25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>16400</v>
+      </c>
+      <c r="C329" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D329" s="1">
+        <f t="shared" si="15"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>16450</v>
+      </c>
+      <c r="C330" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D330" s="1">
+        <f t="shared" si="15"/>
+        <v>246.75</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>16500</v>
+      </c>
+      <c r="C331" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D331" s="1">
+        <f t="shared" si="15"/>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>16550</v>
+      </c>
+      <c r="C332" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D332" s="1">
+        <f t="shared" si="15"/>
+        <v>248.25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16600</v>
+      </c>
+      <c r="C333" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D333" s="1">
+        <f t="shared" si="15"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>16650</v>
+      </c>
+      <c r="C334" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D334" s="1">
+        <f t="shared" si="15"/>
+        <v>249.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>16700</v>
+      </c>
+      <c r="C335" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D335" s="1">
+        <f t="shared" si="15"/>
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>16750</v>
+      </c>
+      <c r="C336" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D336" s="1">
+        <f t="shared" si="15"/>
+        <v>251.25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>16800</v>
+      </c>
+      <c r="C337" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D337" s="1">
+        <f t="shared" si="15"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>16850</v>
+      </c>
+      <c r="C338" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D338" s="1">
+        <f t="shared" si="15"/>
+        <v>252.75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>16900</v>
+      </c>
+      <c r="C339" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D339" s="1">
+        <f t="shared" si="15"/>
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>16950</v>
+      </c>
+      <c r="C340" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D340" s="1">
+        <f t="shared" si="15"/>
+        <v>254.25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C341" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D341" s="1">
+        <f t="shared" si="15"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>17050</v>
+      </c>
+      <c r="C342" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D342" s="1">
+        <f t="shared" si="15"/>
+        <v>255.75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>17100</v>
+      </c>
+      <c r="C343" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D343" s="1">
+        <f t="shared" si="15"/>
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>17150</v>
+      </c>
+      <c r="C344" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D344" s="1">
+        <f t="shared" si="15"/>
+        <v>257.25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>17200</v>
+      </c>
+      <c r="C345" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D345" s="1">
+        <f t="shared" si="15"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>17250</v>
+      </c>
+      <c r="C346" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D346" s="1">
+        <f t="shared" si="15"/>
+        <v>258.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>17300</v>
+      </c>
+      <c r="C347" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D347" s="1">
+        <f t="shared" si="15"/>
+        <v>259.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>17350</v>
+      </c>
+      <c r="C348" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D348" s="1">
+        <f t="shared" si="15"/>
+        <v>260.25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>17400</v>
+      </c>
+      <c r="C349" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D349" s="1">
+        <f t="shared" si="15"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>17450</v>
+      </c>
+      <c r="C350" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D350" s="1">
+        <f t="shared" si="15"/>
+        <v>261.75</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>17500</v>
+      </c>
+      <c r="C351" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D351" s="1">
+        <f t="shared" si="15"/>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>17550</v>
+      </c>
+      <c r="C352" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D352" s="1">
+        <f t="shared" si="15"/>
+        <v>263.25</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>17600</v>
+      </c>
+      <c r="C353" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D353" s="1">
+        <f t="shared" si="15"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>17650</v>
+      </c>
+      <c r="C354" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D354" s="1">
+        <f t="shared" si="15"/>
+        <v>264.75</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>17700</v>
+      </c>
+      <c r="C355" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D355" s="1">
+        <f t="shared" si="15"/>
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>17750</v>
+      </c>
+      <c r="C356" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D356" s="1">
+        <f t="shared" si="15"/>
+        <v>266.25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>17800</v>
+      </c>
+      <c r="C357" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D357" s="1">
+        <f t="shared" si="15"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>17850</v>
+      </c>
+      <c r="C358" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D358" s="1">
+        <f t="shared" si="15"/>
+        <v>267.75</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>17900</v>
+      </c>
+      <c r="C359" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D359" s="1">
+        <f t="shared" si="15"/>
+        <v>268.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>17950</v>
+      </c>
+      <c r="C360" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D360" s="1">
+        <f t="shared" si="15"/>
+        <v>269.25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C361" s="1">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="D361" s="1">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>18050</v>
+      </c>
+      <c r="C362" s="1">
+        <f t="shared" ref="C362:C401" si="16">C361</f>
+        <v>76</v>
+      </c>
+      <c r="D362" s="1">
+        <f t="shared" si="15"/>
+        <v>270.75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>18100</v>
+      </c>
+      <c r="C363" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D363" s="1">
+        <f t="shared" si="15"/>
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>18150</v>
+      </c>
+      <c r="C364" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D364" s="1">
+        <f t="shared" si="15"/>
+        <v>272.25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>18200</v>
+      </c>
+      <c r="C365" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D365" s="1">
+        <f t="shared" si="15"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>18250</v>
+      </c>
+      <c r="C366" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D366" s="1">
+        <f t="shared" ref="D366:D401" si="17">B366*0.015</f>
+        <v>273.75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>18300</v>
+      </c>
+      <c r="C367" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D367" s="1">
+        <f t="shared" si="17"/>
+        <v>274.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>18350</v>
+      </c>
+      <c r="C368" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D368" s="1">
+        <f t="shared" si="17"/>
+        <v>275.25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>18400</v>
+      </c>
+      <c r="C369" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D369" s="1">
+        <f t="shared" si="17"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>18450</v>
+      </c>
+      <c r="C370" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D370" s="1">
+        <f t="shared" si="17"/>
+        <v>276.75</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18500</v>
+      </c>
+      <c r="C371" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D371" s="1">
+        <f t="shared" si="17"/>
+        <v>277.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>18550</v>
+      </c>
+      <c r="C372" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D372" s="1">
+        <f t="shared" si="17"/>
+        <v>278.25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>18600</v>
+      </c>
+      <c r="C373" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D373" s="1">
+        <f t="shared" si="17"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>18650</v>
+      </c>
+      <c r="C374" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D374" s="1">
+        <f t="shared" si="17"/>
+        <v>279.75</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>18700</v>
+      </c>
+      <c r="C375" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D375" s="1">
+        <f t="shared" si="17"/>
+        <v>280.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>18750</v>
+      </c>
+      <c r="C376" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D376" s="1">
+        <f t="shared" si="17"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>18800</v>
+      </c>
+      <c r="C377" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D377" s="1">
+        <f t="shared" si="17"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>18850</v>
+      </c>
+      <c r="C378" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D378" s="1">
+        <f t="shared" si="17"/>
+        <v>282.75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>18900</v>
+      </c>
+      <c r="C379" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D379" s="1">
+        <f t="shared" si="17"/>
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>18950</v>
+      </c>
+      <c r="C380" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D380" s="1">
+        <f t="shared" si="17"/>
+        <v>284.25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>19000</v>
+      </c>
+      <c r="C381" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D381" s="1">
+        <f t="shared" si="17"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>19050</v>
+      </c>
+      <c r="C382" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D382" s="1">
+        <f t="shared" si="17"/>
+        <v>285.75</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>19100</v>
+      </c>
+      <c r="C383" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D383" s="1">
+        <f t="shared" si="17"/>
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>19150</v>
+      </c>
+      <c r="C384" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D384" s="1">
+        <f t="shared" si="17"/>
+        <v>287.25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>19200</v>
+      </c>
+      <c r="C385" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D385" s="1">
+        <f t="shared" si="17"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>19250</v>
+      </c>
+      <c r="C386" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D386" s="1">
+        <f t="shared" si="17"/>
+        <v>288.75</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>19300</v>
+      </c>
+      <c r="C387" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D387" s="1">
+        <f t="shared" si="17"/>
+        <v>289.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>19350</v>
+      </c>
+      <c r="C388" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D388" s="1">
+        <f t="shared" si="17"/>
+        <v>290.25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>19400</v>
+      </c>
+      <c r="C389" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D389" s="1">
+        <f t="shared" si="17"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>19450</v>
+      </c>
+      <c r="C390" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D390" s="1">
+        <f t="shared" si="17"/>
+        <v>291.75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>19500</v>
+      </c>
+      <c r="C391" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D391" s="1">
+        <f t="shared" si="17"/>
+        <v>292.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>19550</v>
+      </c>
+      <c r="C392" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D392" s="1">
+        <f t="shared" si="17"/>
+        <v>293.25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>19600</v>
+      </c>
+      <c r="C393" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D393" s="1">
+        <f t="shared" si="17"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>19650</v>
+      </c>
+      <c r="C394" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D394" s="1">
+        <f t="shared" si="17"/>
+        <v>294.75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>19700</v>
+      </c>
+      <c r="C395" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D395" s="1">
+        <f t="shared" si="17"/>
+        <v>295.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>19750</v>
+      </c>
+      <c r="C396" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D396" s="1">
+        <f t="shared" si="17"/>
+        <v>296.25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C397" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D397" s="1">
+        <f t="shared" si="17"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>19850</v>
+      </c>
+      <c r="C398" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D398" s="1">
+        <f t="shared" si="17"/>
+        <v>297.75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>19900</v>
+      </c>
+      <c r="C399" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D399" s="1">
+        <f t="shared" si="17"/>
+        <v>298.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>19950</v>
+      </c>
+      <c r="C400" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D400" s="1">
+        <f t="shared" si="17"/>
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C401" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D401" s="1">
+        <f t="shared" si="17"/>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TransUpgrade.xlsx
+++ b/Assets/06.Table/TransUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7CA82D-5D58-4BB1-BFDD-738ACF289B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0DBBC1-5F04-4084-AA8A-9D3BB3ADE19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B394" sqref="B394"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B596" sqref="B596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6231,7 +6231,7 @@
         <v>18050</v>
       </c>
       <c r="C362" s="1">
-        <f t="shared" ref="C362:C401" si="16">C361</f>
+        <f t="shared" ref="C362:C425" si="16">C361</f>
         <v>76</v>
       </c>
       <c r="D362" s="1">
@@ -6861,6 +6861,3206 @@
       <c r="D401" s="1">
         <f t="shared" si="17"/>
         <v>300</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>20050</v>
+      </c>
+      <c r="C402" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D402" s="1">
+        <f t="shared" ref="D402:D465" si="18">B402*0.015</f>
+        <v>300.75</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>20100</v>
+      </c>
+      <c r="C403" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D403" s="1">
+        <f t="shared" si="18"/>
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>20150</v>
+      </c>
+      <c r="C404" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D404" s="1">
+        <f t="shared" si="18"/>
+        <v>302.25</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20200</v>
+      </c>
+      <c r="C405" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D405" s="1">
+        <f t="shared" si="18"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>20250</v>
+      </c>
+      <c r="C406" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D406" s="1">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>20300</v>
+      </c>
+      <c r="C407" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D407" s="1">
+        <f t="shared" si="18"/>
+        <v>304.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>20350</v>
+      </c>
+      <c r="C408" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D408" s="1">
+        <f t="shared" si="18"/>
+        <v>305.25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>20400</v>
+      </c>
+      <c r="C409" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D409" s="1">
+        <f t="shared" si="18"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>20450</v>
+      </c>
+      <c r="C410" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D410" s="1">
+        <f t="shared" si="18"/>
+        <v>306.75</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>20500</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D411" s="1">
+        <f t="shared" si="18"/>
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>20550</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D412" s="1">
+        <f t="shared" si="18"/>
+        <v>308.25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>20600</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D413" s="1">
+        <f t="shared" si="18"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>20650</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D414" s="1">
+        <f t="shared" si="18"/>
+        <v>309.75</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>20700</v>
+      </c>
+      <c r="C415" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D415" s="1">
+        <f t="shared" si="18"/>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>20750</v>
+      </c>
+      <c r="C416" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D416" s="1">
+        <f t="shared" si="18"/>
+        <v>311.25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>20800</v>
+      </c>
+      <c r="C417" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D417" s="1">
+        <f t="shared" si="18"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>20850</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D418" s="1">
+        <f t="shared" si="18"/>
+        <v>312.75</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>20900</v>
+      </c>
+      <c r="C419" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D419" s="1">
+        <f t="shared" si="18"/>
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>20950</v>
+      </c>
+      <c r="C420" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D420" s="1">
+        <f t="shared" si="18"/>
+        <v>314.25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>21000</v>
+      </c>
+      <c r="C421" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D421" s="1">
+        <f t="shared" si="18"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>21050</v>
+      </c>
+      <c r="C422" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D422" s="1">
+        <f t="shared" si="18"/>
+        <v>315.75</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>21100</v>
+      </c>
+      <c r="C423" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D423" s="1">
+        <f t="shared" si="18"/>
+        <v>316.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>21150</v>
+      </c>
+      <c r="C424" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D424" s="1">
+        <f t="shared" si="18"/>
+        <v>317.25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>21200</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="D425" s="1">
+        <f t="shared" si="18"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>21250</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" ref="C426:C489" si="19">C425</f>
+        <v>76</v>
+      </c>
+      <c r="D426" s="1">
+        <f t="shared" si="18"/>
+        <v>318.75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>21300</v>
+      </c>
+      <c r="C427" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D427" s="1">
+        <f t="shared" si="18"/>
+        <v>319.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>21350</v>
+      </c>
+      <c r="C428" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D428" s="1">
+        <f t="shared" si="18"/>
+        <v>320.25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>21400</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D429" s="1">
+        <f t="shared" si="18"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>21450</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D430" s="1">
+        <f t="shared" si="18"/>
+        <v>321.75</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>21500</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D431" s="1">
+        <f t="shared" si="18"/>
+        <v>322.5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <v>21550</v>
+      </c>
+      <c r="C432" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D432" s="1">
+        <f t="shared" si="18"/>
+        <v>323.25</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <v>21600</v>
+      </c>
+      <c r="C433" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D433" s="1">
+        <f t="shared" si="18"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <v>21650</v>
+      </c>
+      <c r="C434" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D434" s="1">
+        <f t="shared" si="18"/>
+        <v>324.75</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <v>21700</v>
+      </c>
+      <c r="C435" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D435" s="1">
+        <f t="shared" si="18"/>
+        <v>325.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>21750</v>
+      </c>
+      <c r="C436" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D436" s="1">
+        <f t="shared" si="18"/>
+        <v>326.25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <v>21800</v>
+      </c>
+      <c r="C437" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D437" s="1">
+        <f t="shared" si="18"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21850</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D438" s="1">
+        <f t="shared" si="18"/>
+        <v>327.75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <v>21900</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D439" s="1">
+        <f t="shared" si="18"/>
+        <v>328.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <v>21950</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D440" s="1">
+        <f t="shared" si="18"/>
+        <v>329.25</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D441" s="1">
+        <f t="shared" si="18"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <v>22050</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D442" s="1">
+        <f t="shared" si="18"/>
+        <v>330.75</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <v>22100</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D443" s="1">
+        <f t="shared" si="18"/>
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <v>22150</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D444" s="1">
+        <f t="shared" si="18"/>
+        <v>332.25</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <v>22200</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D445" s="1">
+        <f t="shared" si="18"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>22250</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D446" s="1">
+        <f t="shared" si="18"/>
+        <v>333.75</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <v>22300</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D447" s="1">
+        <f t="shared" si="18"/>
+        <v>334.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <v>22350</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D448" s="1">
+        <f t="shared" si="18"/>
+        <v>335.25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <v>22400</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D449" s="1">
+        <f t="shared" si="18"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <v>22450</v>
+      </c>
+      <c r="C450" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D450" s="1">
+        <f t="shared" si="18"/>
+        <v>336.75</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>22500</v>
+      </c>
+      <c r="C451" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D451" s="1">
+        <f t="shared" si="18"/>
+        <v>337.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <v>22550</v>
+      </c>
+      <c r="C452" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D452" s="1">
+        <f t="shared" si="18"/>
+        <v>338.25</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <v>22600</v>
+      </c>
+      <c r="C453" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D453" s="1">
+        <f t="shared" si="18"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <v>22650</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D454" s="1">
+        <f t="shared" si="18"/>
+        <v>339.75</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <v>22700</v>
+      </c>
+      <c r="C455" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D455" s="1">
+        <f t="shared" si="18"/>
+        <v>340.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <v>22750</v>
+      </c>
+      <c r="C456" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D456" s="1">
+        <f t="shared" si="18"/>
+        <v>341.25</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C457" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D457" s="1">
+        <f t="shared" si="18"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <v>22850</v>
+      </c>
+      <c r="C458" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D458" s="1">
+        <f t="shared" si="18"/>
+        <v>342.75</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <v>22900</v>
+      </c>
+      <c r="C459" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D459" s="1">
+        <f t="shared" si="18"/>
+        <v>343.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <v>22950</v>
+      </c>
+      <c r="C460" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D460" s="1">
+        <f t="shared" si="18"/>
+        <v>344.25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <v>23000</v>
+      </c>
+      <c r="C461" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D461" s="1">
+        <f t="shared" si="18"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <v>23050</v>
+      </c>
+      <c r="C462" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D462" s="1">
+        <f t="shared" si="18"/>
+        <v>345.75</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <v>23100</v>
+      </c>
+      <c r="C463" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D463" s="1">
+        <f t="shared" si="18"/>
+        <v>346.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <v>23150</v>
+      </c>
+      <c r="C464" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D464" s="1">
+        <f t="shared" si="18"/>
+        <v>347.25</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <v>23200</v>
+      </c>
+      <c r="C465" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D465" s="1">
+        <f t="shared" si="18"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <v>23250</v>
+      </c>
+      <c r="C466" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D466" s="1">
+        <f t="shared" ref="D466:D529" si="20">B466*0.015</f>
+        <v>348.75</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <v>23300</v>
+      </c>
+      <c r="C467" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D467" s="1">
+        <f t="shared" si="20"/>
+        <v>349.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <v>23350</v>
+      </c>
+      <c r="C468" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D468" s="1">
+        <f t="shared" si="20"/>
+        <v>350.25</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <v>23400</v>
+      </c>
+      <c r="C469" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D469" s="1">
+        <f t="shared" si="20"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <v>23450</v>
+      </c>
+      <c r="C470" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D470" s="1">
+        <f t="shared" si="20"/>
+        <v>351.75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <v>23500</v>
+      </c>
+      <c r="C471" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D471" s="1">
+        <f t="shared" si="20"/>
+        <v>352.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <v>23550</v>
+      </c>
+      <c r="C472" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D472" s="1">
+        <f t="shared" si="20"/>
+        <v>353.25</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <v>23600</v>
+      </c>
+      <c r="C473" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D473" s="1">
+        <f t="shared" si="20"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <v>23650</v>
+      </c>
+      <c r="C474" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D474" s="1">
+        <f t="shared" si="20"/>
+        <v>354.75</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <v>23700</v>
+      </c>
+      <c r="C475" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D475" s="1">
+        <f t="shared" si="20"/>
+        <v>355.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <v>23750</v>
+      </c>
+      <c r="C476" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D476" s="1">
+        <f t="shared" si="20"/>
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C477" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D477" s="1">
+        <f t="shared" si="20"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <v>23850</v>
+      </c>
+      <c r="C478" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D478" s="1">
+        <f t="shared" si="20"/>
+        <v>357.75</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <v>23900</v>
+      </c>
+      <c r="C479" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D479" s="1">
+        <f t="shared" si="20"/>
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <v>23950</v>
+      </c>
+      <c r="C480" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D480" s="1">
+        <f t="shared" si="20"/>
+        <v>359.25</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <v>24000</v>
+      </c>
+      <c r="C481" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D481" s="1">
+        <f t="shared" si="20"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <v>24050</v>
+      </c>
+      <c r="C482" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D482" s="1">
+        <f t="shared" si="20"/>
+        <v>360.75</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <v>24100</v>
+      </c>
+      <c r="C483" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D483" s="1">
+        <f t="shared" si="20"/>
+        <v>361.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>24150</v>
+      </c>
+      <c r="C484" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D484" s="1">
+        <f t="shared" si="20"/>
+        <v>362.25</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>24200</v>
+      </c>
+      <c r="C485" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D485" s="1">
+        <f t="shared" si="20"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>24250</v>
+      </c>
+      <c r="C486" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D486" s="1">
+        <f t="shared" si="20"/>
+        <v>363.75</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>24300</v>
+      </c>
+      <c r="C487" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D487" s="1">
+        <f t="shared" si="20"/>
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>24350</v>
+      </c>
+      <c r="C488" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D488" s="1">
+        <f t="shared" si="20"/>
+        <v>365.25</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>24400</v>
+      </c>
+      <c r="C489" s="1">
+        <f t="shared" si="19"/>
+        <v>76</v>
+      </c>
+      <c r="D489" s="1">
+        <f t="shared" si="20"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>24450</v>
+      </c>
+      <c r="C490" s="1">
+        <f t="shared" ref="C490:C553" si="21">C489</f>
+        <v>76</v>
+      </c>
+      <c r="D490" s="1">
+        <f t="shared" si="20"/>
+        <v>366.75</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>24500</v>
+      </c>
+      <c r="C491" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D491" s="1">
+        <f t="shared" si="20"/>
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>24550</v>
+      </c>
+      <c r="C492" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D492" s="1">
+        <f t="shared" si="20"/>
+        <v>368.25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>24600</v>
+      </c>
+      <c r="C493" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D493" s="1">
+        <f t="shared" si="20"/>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>24650</v>
+      </c>
+      <c r="C494" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D494" s="1">
+        <f t="shared" si="20"/>
+        <v>369.75</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>24700</v>
+      </c>
+      <c r="C495" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D495" s="1">
+        <f t="shared" si="20"/>
+        <v>370.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>24750</v>
+      </c>
+      <c r="C496" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D496" s="1">
+        <f t="shared" si="20"/>
+        <v>371.25</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>24800</v>
+      </c>
+      <c r="C497" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D497" s="1">
+        <f t="shared" si="20"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>24850</v>
+      </c>
+      <c r="C498" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D498" s="1">
+        <f t="shared" si="20"/>
+        <v>372.75</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>24900</v>
+      </c>
+      <c r="C499" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D499" s="1">
+        <f t="shared" si="20"/>
+        <v>373.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>24950</v>
+      </c>
+      <c r="C500" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D500" s="1">
+        <f t="shared" si="20"/>
+        <v>374.25</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C501" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D501" s="1">
+        <f t="shared" si="20"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>25050</v>
+      </c>
+      <c r="C502" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D502" s="1">
+        <f t="shared" si="20"/>
+        <v>375.75</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>25100</v>
+      </c>
+      <c r="C503" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D503" s="1">
+        <f t="shared" si="20"/>
+        <v>376.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>25150</v>
+      </c>
+      <c r="C504" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D504" s="1">
+        <f t="shared" si="20"/>
+        <v>377.25</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>25200</v>
+      </c>
+      <c r="C505" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D505" s="1">
+        <f t="shared" si="20"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25250</v>
+      </c>
+      <c r="C506" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D506" s="1">
+        <f t="shared" si="20"/>
+        <v>378.75</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>25300</v>
+      </c>
+      <c r="C507" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D507" s="1">
+        <f t="shared" si="20"/>
+        <v>379.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>25350</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D508" s="1">
+        <f t="shared" si="20"/>
+        <v>380.25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>25400</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D509" s="1">
+        <f t="shared" si="20"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>25450</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D510" s="1">
+        <f t="shared" si="20"/>
+        <v>381.75</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>25500</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D511" s="1">
+        <f t="shared" si="20"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>25550</v>
+      </c>
+      <c r="C512" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D512" s="1">
+        <f t="shared" si="20"/>
+        <v>383.25</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>25600</v>
+      </c>
+      <c r="C513" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D513" s="1">
+        <f t="shared" si="20"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>25650</v>
+      </c>
+      <c r="C514" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D514" s="1">
+        <f t="shared" si="20"/>
+        <v>384.75</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>25700</v>
+      </c>
+      <c r="C515" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D515" s="1">
+        <f t="shared" si="20"/>
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>25750</v>
+      </c>
+      <c r="C516" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D516" s="1">
+        <f t="shared" si="20"/>
+        <v>386.25</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>25800</v>
+      </c>
+      <c r="C517" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D517" s="1">
+        <f t="shared" si="20"/>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>25850</v>
+      </c>
+      <c r="C518" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D518" s="1">
+        <f t="shared" si="20"/>
+        <v>387.75</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>25900</v>
+      </c>
+      <c r="C519" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D519" s="1">
+        <f t="shared" si="20"/>
+        <v>388.5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>25950</v>
+      </c>
+      <c r="C520" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D520" s="1">
+        <f t="shared" si="20"/>
+        <v>389.25</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>26000</v>
+      </c>
+      <c r="C521" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D521" s="1">
+        <f t="shared" si="20"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>26050</v>
+      </c>
+      <c r="C522" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D522" s="1">
+        <f t="shared" si="20"/>
+        <v>390.75</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>26100</v>
+      </c>
+      <c r="C523" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D523" s="1">
+        <f t="shared" si="20"/>
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>26150</v>
+      </c>
+      <c r="C524" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D524" s="1">
+        <f t="shared" si="20"/>
+        <v>392.25</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>26200</v>
+      </c>
+      <c r="C525" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D525" s="1">
+        <f t="shared" si="20"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>26250</v>
+      </c>
+      <c r="C526" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D526" s="1">
+        <f t="shared" si="20"/>
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>26300</v>
+      </c>
+      <c r="C527" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D527" s="1">
+        <f t="shared" si="20"/>
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>26350</v>
+      </c>
+      <c r="C528" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D528" s="1">
+        <f t="shared" si="20"/>
+        <v>395.25</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>26400</v>
+      </c>
+      <c r="C529" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D529" s="1">
+        <f t="shared" si="20"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>26450</v>
+      </c>
+      <c r="C530" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D530" s="1">
+        <f t="shared" ref="D530:D593" si="22">B530*0.015</f>
+        <v>396.75</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>26500</v>
+      </c>
+      <c r="C531" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D531" s="1">
+        <f t="shared" si="22"/>
+        <v>397.5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>26550</v>
+      </c>
+      <c r="C532" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D532" s="1">
+        <f t="shared" si="22"/>
+        <v>398.25</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>26600</v>
+      </c>
+      <c r="C533" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D533" s="1">
+        <f t="shared" si="22"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>26650</v>
+      </c>
+      <c r="C534" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D534" s="1">
+        <f t="shared" si="22"/>
+        <v>399.75</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>26700</v>
+      </c>
+      <c r="C535" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D535" s="1">
+        <f t="shared" si="22"/>
+        <v>400.5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>26750</v>
+      </c>
+      <c r="C536" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D536" s="1">
+        <f t="shared" si="22"/>
+        <v>401.25</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>26800</v>
+      </c>
+      <c r="C537" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D537" s="1">
+        <f t="shared" si="22"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>26850</v>
+      </c>
+      <c r="C538" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D538" s="1">
+        <f t="shared" si="22"/>
+        <v>402.75</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>26900</v>
+      </c>
+      <c r="C539" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D539" s="1">
+        <f t="shared" si="22"/>
+        <v>403.5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>26950</v>
+      </c>
+      <c r="C540" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D540" s="1">
+        <f t="shared" si="22"/>
+        <v>404.25</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>27000</v>
+      </c>
+      <c r="C541" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D541" s="1">
+        <f t="shared" si="22"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>27050</v>
+      </c>
+      <c r="C542" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D542" s="1">
+        <f t="shared" si="22"/>
+        <v>405.75</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>27100</v>
+      </c>
+      <c r="C543" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D543" s="1">
+        <f t="shared" si="22"/>
+        <v>406.5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>27150</v>
+      </c>
+      <c r="C544" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D544" s="1">
+        <f t="shared" si="22"/>
+        <v>407.25</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>27200</v>
+      </c>
+      <c r="C545" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D545" s="1">
+        <f t="shared" si="22"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>27250</v>
+      </c>
+      <c r="C546" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D546" s="1">
+        <f t="shared" si="22"/>
+        <v>408.75</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>27300</v>
+      </c>
+      <c r="C547" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D547" s="1">
+        <f t="shared" si="22"/>
+        <v>409.5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>27350</v>
+      </c>
+      <c r="C548" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D548" s="1">
+        <f t="shared" si="22"/>
+        <v>410.25</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>27400</v>
+      </c>
+      <c r="C549" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D549" s="1">
+        <f t="shared" si="22"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>27450</v>
+      </c>
+      <c r="C550" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D550" s="1">
+        <f t="shared" si="22"/>
+        <v>411.75</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>27500</v>
+      </c>
+      <c r="C551" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D551" s="1">
+        <f t="shared" si="22"/>
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>27550</v>
+      </c>
+      <c r="C552" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D552" s="1">
+        <f t="shared" si="22"/>
+        <v>413.25</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>27600</v>
+      </c>
+      <c r="C553" s="1">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="D553" s="1">
+        <f t="shared" si="22"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>27650</v>
+      </c>
+      <c r="C554" s="1">
+        <f t="shared" ref="C554:C601" si="23">C553</f>
+        <v>76</v>
+      </c>
+      <c r="D554" s="1">
+        <f t="shared" si="22"/>
+        <v>414.75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>27700</v>
+      </c>
+      <c r="C555" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D555" s="1">
+        <f t="shared" si="22"/>
+        <v>415.5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>27750</v>
+      </c>
+      <c r="C556" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D556" s="1">
+        <f t="shared" si="22"/>
+        <v>416.25</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>27800</v>
+      </c>
+      <c r="C557" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D557" s="1">
+        <f t="shared" si="22"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>27850</v>
+      </c>
+      <c r="C558" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D558" s="1">
+        <f t="shared" si="22"/>
+        <v>417.75</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>27900</v>
+      </c>
+      <c r="C559" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D559" s="1">
+        <f t="shared" si="22"/>
+        <v>418.5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>27950</v>
+      </c>
+      <c r="C560" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D560" s="1">
+        <f t="shared" si="22"/>
+        <v>419.25</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C561" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D561" s="1">
+        <f t="shared" si="22"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>28050</v>
+      </c>
+      <c r="C562" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D562" s="1">
+        <f t="shared" si="22"/>
+        <v>420.75</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>28100</v>
+      </c>
+      <c r="C563" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D563" s="1">
+        <f t="shared" si="22"/>
+        <v>421.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>28150</v>
+      </c>
+      <c r="C564" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D564" s="1">
+        <f t="shared" si="22"/>
+        <v>422.25</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C565" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D565" s="1">
+        <f t="shared" si="22"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>28250</v>
+      </c>
+      <c r="C566" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D566" s="1">
+        <f t="shared" si="22"/>
+        <v>423.75</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>28300</v>
+      </c>
+      <c r="C567" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D567" s="1">
+        <f t="shared" si="22"/>
+        <v>424.5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>28350</v>
+      </c>
+      <c r="C568" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D568" s="1">
+        <f t="shared" si="22"/>
+        <v>425.25</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>28400</v>
+      </c>
+      <c r="C569" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D569" s="1">
+        <f t="shared" si="22"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>28450</v>
+      </c>
+      <c r="C570" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D570" s="1">
+        <f t="shared" si="22"/>
+        <v>426.75</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>28500</v>
+      </c>
+      <c r="C571" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D571" s="1">
+        <f t="shared" si="22"/>
+        <v>427.5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>28550</v>
+      </c>
+      <c r="C572" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D572" s="1">
+        <f t="shared" si="22"/>
+        <v>428.25</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>28600</v>
+      </c>
+      <c r="C573" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D573" s="1">
+        <f t="shared" si="22"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>28650</v>
+      </c>
+      <c r="C574" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D574" s="1">
+        <f t="shared" si="22"/>
+        <v>429.75</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>28700</v>
+      </c>
+      <c r="C575" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D575" s="1">
+        <f t="shared" si="22"/>
+        <v>430.5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>28750</v>
+      </c>
+      <c r="C576" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D576" s="1">
+        <f t="shared" si="22"/>
+        <v>431.25</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>28800</v>
+      </c>
+      <c r="C577" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D577" s="1">
+        <f t="shared" si="22"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>28850</v>
+      </c>
+      <c r="C578" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D578" s="1">
+        <f t="shared" si="22"/>
+        <v>432.75</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>28900</v>
+      </c>
+      <c r="C579" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D579" s="1">
+        <f t="shared" si="22"/>
+        <v>433.5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>28950</v>
+      </c>
+      <c r="C580" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D580" s="1">
+        <f t="shared" si="22"/>
+        <v>434.25</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>29000</v>
+      </c>
+      <c r="C581" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D581" s="1">
+        <f t="shared" si="22"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>29050</v>
+      </c>
+      <c r="C582" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D582" s="1">
+        <f t="shared" si="22"/>
+        <v>435.75</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>29100</v>
+      </c>
+      <c r="C583" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D583" s="1">
+        <f t="shared" si="22"/>
+        <v>436.5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>29150</v>
+      </c>
+      <c r="C584" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D584" s="1">
+        <f t="shared" si="22"/>
+        <v>437.25</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>29200</v>
+      </c>
+      <c r="C585" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D585" s="1">
+        <f t="shared" si="22"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>29250</v>
+      </c>
+      <c r="C586" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D586" s="1">
+        <f t="shared" si="22"/>
+        <v>438.75</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>29300</v>
+      </c>
+      <c r="C587" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D587" s="1">
+        <f t="shared" si="22"/>
+        <v>439.5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>29350</v>
+      </c>
+      <c r="C588" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D588" s="1">
+        <f t="shared" si="22"/>
+        <v>440.25</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>29400</v>
+      </c>
+      <c r="C589" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D589" s="1">
+        <f t="shared" si="22"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>29450</v>
+      </c>
+      <c r="C590" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D590" s="1">
+        <f t="shared" si="22"/>
+        <v>441.75</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>29500</v>
+      </c>
+      <c r="C591" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D591" s="1">
+        <f t="shared" si="22"/>
+        <v>442.5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>29550</v>
+      </c>
+      <c r="C592" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D592" s="1">
+        <f t="shared" si="22"/>
+        <v>443.25</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>29600</v>
+      </c>
+      <c r="C593" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D593" s="1">
+        <f t="shared" si="22"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>29650</v>
+      </c>
+      <c r="C594" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D594" s="1">
+        <f t="shared" ref="D594:D601" si="24">B594*0.015</f>
+        <v>444.75</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>29700</v>
+      </c>
+      <c r="C595" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D595" s="1">
+        <f t="shared" si="24"/>
+        <v>445.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>29750</v>
+      </c>
+      <c r="C596" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D596" s="1">
+        <f t="shared" si="24"/>
+        <v>446.25</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>29800</v>
+      </c>
+      <c r="C597" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D597" s="1">
+        <f t="shared" si="24"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>29850</v>
+      </c>
+      <c r="C598" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D598" s="1">
+        <f t="shared" si="24"/>
+        <v>447.75</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>29900</v>
+      </c>
+      <c r="C599" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D599" s="1">
+        <f t="shared" si="24"/>
+        <v>448.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>29950</v>
+      </c>
+      <c r="C600" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D600" s="1">
+        <f t="shared" si="24"/>
+        <v>449.25</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C601" s="1">
+        <f t="shared" si="23"/>
+        <v>76</v>
+      </c>
+      <c r="D601" s="1">
+        <f t="shared" si="24"/>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
